--- a/dataanalysis/data/predictions/1600/07171525_1822.xlsx
+++ b/dataanalysis/data/predictions/1600/07171525_1822.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="139">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-17</t>
   </si>
   <si>
@@ -428,12 +431,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -791,13 +788,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,19 +876,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>-0.2</v>
@@ -909,7 +909,7 @@
         <v>102872.78</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -929,8 +929,23 @@
       <c r="P2">
         <v>-0.48</v>
       </c>
+      <c r="Q2">
+        <v>1.61</v>
+      </c>
+      <c r="R2">
+        <v>5.12</v>
+      </c>
+      <c r="S2">
+        <v>2.81</v>
+      </c>
       <c r="V2" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -938,22 +953,25 @@
       <c r="Z2">
         <v>7.466835498809814</v>
       </c>
-      <c r="AA2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-0.67</v>
@@ -971,7 +989,7 @@
         <v>70720.33</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -991,8 +1009,23 @@
       <c r="P3">
         <v>-0.8</v>
       </c>
+      <c r="Q3">
+        <v>-0.98</v>
+      </c>
+      <c r="R3">
+        <v>22.86</v>
+      </c>
+      <c r="S3">
+        <v>2.19</v>
+      </c>
       <c r="V3" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1000,22 +1033,25 @@
       <c r="Z3">
         <v>1.489030241966248</v>
       </c>
-      <c r="AA3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300046</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>4.22</v>
@@ -1033,7 +1069,7 @@
         <v>165378.68</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1053,8 +1089,23 @@
       <c r="P4">
         <v>0.47</v>
       </c>
+      <c r="Q4">
+        <v>1.45</v>
+      </c>
+      <c r="R4">
+        <v>43.62</v>
+      </c>
+      <c r="S4">
+        <v>2.04</v>
+      </c>
       <c r="V4" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1062,22 +1113,25 @@
       <c r="Z4">
         <v>6.423761367797852</v>
       </c>
-      <c r="AA4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300049</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>1.42</v>
@@ -1095,7 +1149,7 @@
         <v>56140.32</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1115,8 +1169,23 @@
       <c r="P5">
         <v>-0.43</v>
       </c>
+      <c r="Q5">
+        <v>-0.1</v>
+      </c>
+      <c r="R5">
+        <v>40.95</v>
+      </c>
+      <c r="S5">
+        <v>0.86</v>
+      </c>
       <c r="V5" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1124,22 +1193,25 @@
       <c r="Z5">
         <v>-0.6893924474716187</v>
       </c>
-      <c r="AA5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300066</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>5.88</v>
@@ -1157,7 +1229,7 @@
         <v>159568.91</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1177,8 +1249,23 @@
       <c r="P6">
         <v>0.41</v>
       </c>
+      <c r="Q6">
+        <v>3.33</v>
+      </c>
+      <c r="R6">
+        <v>6.84</v>
+      </c>
+      <c r="S6">
+        <v>8.57</v>
+      </c>
       <c r="V6" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1186,22 +1273,25 @@
       <c r="Z6">
         <v>4.800946235656738</v>
       </c>
-      <c r="AA6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300130</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0.87</v>
@@ -1219,7 +1309,7 @@
         <v>129428.45</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>23</v>
@@ -1239,8 +1329,23 @@
       <c r="P7">
         <v>-0.36</v>
       </c>
+      <c r="Q7">
+        <v>0.21</v>
+      </c>
+      <c r="R7">
+        <v>33.49</v>
+      </c>
+      <c r="S7">
+        <v>2.67</v>
+      </c>
       <c r="V7" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1248,22 +1353,25 @@
       <c r="Z7">
         <v>3.336843252182007</v>
       </c>
-      <c r="AA7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300180</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0.97</v>
@@ -1281,7 +1389,7 @@
         <v>123966.07</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8">
         <v>22</v>
@@ -1301,8 +1409,23 @@
       <c r="P8">
         <v>-0.73</v>
       </c>
+      <c r="Q8">
+        <v>-2.45</v>
+      </c>
+      <c r="R8">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="S8">
+        <v>0.64</v>
+      </c>
       <c r="V8" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1310,22 +1433,25 @@
       <c r="Z8">
         <v>5.109340190887451</v>
       </c>
-      <c r="AA8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300195</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>-5.49</v>
@@ -1343,7 +1469,7 @@
         <v>65194.43</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1363,8 +1489,23 @@
       <c r="P9">
         <v>-1.33</v>
       </c>
+      <c r="Q9">
+        <v>-3.2</v>
+      </c>
+      <c r="R9">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="S9">
+        <v>-0.71</v>
+      </c>
       <c r="V9" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1372,22 +1513,25 @@
       <c r="Z9">
         <v>1.85400390625</v>
       </c>
-      <c r="AA9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300199</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0.98</v>
@@ -1405,7 +1549,7 @@
         <v>236510.05</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10">
         <v>12</v>
@@ -1425,8 +1569,23 @@
       <c r="P10">
         <v>-0.73</v>
       </c>
+      <c r="Q10">
+        <v>-1.73</v>
+      </c>
+      <c r="R10">
+        <v>19.6</v>
+      </c>
+      <c r="S10">
+        <v>-0.1</v>
+      </c>
       <c r="V10" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1434,22 +1593,25 @@
       <c r="Z10">
         <v>3.150364637374878</v>
       </c>
-      <c r="AA10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300226</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>2.74</v>
@@ -1467,7 +1629,7 @@
         <v>210769.96</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1487,8 +1649,23 @@
       <c r="P11">
         <v>0.52</v>
       </c>
+      <c r="Q11">
+        <v>-4.54</v>
+      </c>
+      <c r="R11">
+        <v>30.3</v>
+      </c>
+      <c r="S11">
+        <v>-0.23</v>
+      </c>
       <c r="V11" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -1496,22 +1673,25 @@
       <c r="Z11">
         <v>4.879115104675293</v>
       </c>
-      <c r="AA11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300254</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>3.6</v>
@@ -1529,7 +1709,7 @@
         <v>42982.86</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -1549,8 +1729,23 @@
       <c r="P12">
         <v>-0.25</v>
       </c>
+      <c r="Q12">
+        <v>-1.48</v>
+      </c>
+      <c r="R12">
+        <v>11.5</v>
+      </c>
+      <c r="S12">
+        <v>-0.17</v>
+      </c>
       <c r="V12" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1558,22 +1753,25 @@
       <c r="Z12">
         <v>3.100604057312012</v>
       </c>
-      <c r="AA12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300348</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>-2.62</v>
@@ -1591,7 +1789,7 @@
         <v>210728.69</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13">
         <v>8</v>
@@ -1611,8 +1809,23 @@
       <c r="P13">
         <v>-2.04</v>
       </c>
+      <c r="Q13">
+        <v>-0.05</v>
+      </c>
+      <c r="R13">
+        <v>19.8</v>
+      </c>
+      <c r="S13">
+        <v>4.38</v>
+      </c>
       <c r="V13" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1620,22 +1833,25 @@
       <c r="Z13">
         <v>-0.2662868201732635</v>
       </c>
-      <c r="AA13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300410</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>-0.88</v>
@@ -1653,7 +1869,7 @@
         <v>26587.53</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -1673,8 +1889,23 @@
       <c r="P14">
         <v>-0.42</v>
       </c>
+      <c r="Q14">
+        <v>-4.82</v>
+      </c>
+      <c r="R14">
+        <v>7.98</v>
+      </c>
+      <c r="S14">
+        <v>1.27</v>
+      </c>
       <c r="V14" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1682,22 +1913,25 @@
       <c r="Z14">
         <v>1.087898969650269</v>
       </c>
-      <c r="AA14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300414</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>0.53</v>
@@ -1715,7 +1949,7 @@
         <v>50850.87</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1735,8 +1969,23 @@
       <c r="P15">
         <v>0.1</v>
       </c>
+      <c r="Q15">
+        <v>1.06</v>
+      </c>
+      <c r="R15">
+        <v>13.57</v>
+      </c>
+      <c r="S15">
+        <v>2.88</v>
+      </c>
       <c r="V15" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1744,22 +1993,25 @@
       <c r="Z15">
         <v>5.401484966278076</v>
       </c>
-      <c r="AA15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300434</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>2.66</v>
@@ -1777,7 +2029,7 @@
         <v>46903.25</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1797,8 +2049,23 @@
       <c r="P16">
         <v>-0.06</v>
       </c>
+      <c r="Q16">
+        <v>-0.83</v>
+      </c>
+      <c r="R16">
+        <v>10.84</v>
+      </c>
+      <c r="S16">
+        <v>0.46</v>
+      </c>
       <c r="V16" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1806,22 +2073,25 @@
       <c r="Z16">
         <v>4.345890522003174</v>
       </c>
-      <c r="AA16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300436</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>-4.41</v>
@@ -1839,7 +2109,7 @@
         <v>166239.33</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K17">
         <v>11</v>
@@ -1859,8 +2129,23 @@
       <c r="P17">
         <v>0.11</v>
       </c>
+      <c r="Q17">
+        <v>-1.91</v>
+      </c>
+      <c r="R17">
+        <v>71.2</v>
+      </c>
+      <c r="S17">
+        <v>-0.52</v>
+      </c>
       <c r="V17" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1868,22 +2153,25 @@
       <c r="Z17">
         <v>4.344495296478271</v>
       </c>
-      <c r="AA17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300469</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>2.08</v>
@@ -1901,7 +2189,7 @@
         <v>91869.28</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1921,8 +2209,23 @@
       <c r="P18">
         <v>0.18</v>
       </c>
+      <c r="Q18">
+        <v>-0.8</v>
+      </c>
+      <c r="R18">
+        <v>47.39</v>
+      </c>
+      <c r="S18">
+        <v>2.55</v>
+      </c>
       <c r="V18" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1930,22 +2233,25 @@
       <c r="Z18">
         <v>1.642244577407837</v>
       </c>
-      <c r="AA18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300502</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>8.07</v>
@@ -1963,7 +2269,7 @@
         <v>1206348.7</v>
       </c>
       <c r="J19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19">
         <v>17</v>
@@ -1983,8 +2289,23 @@
       <c r="P19">
         <v>0.36</v>
       </c>
+      <c r="Q19">
+        <v>-0.64</v>
+      </c>
+      <c r="R19">
+        <v>191</v>
+      </c>
+      <c r="S19">
+        <v>4.09</v>
+      </c>
       <c r="V19" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -1992,22 +2313,25 @@
       <c r="Z19">
         <v>2.656732797622681</v>
       </c>
-      <c r="AA19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300522</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>4.13</v>
@@ -2025,7 +2349,7 @@
         <v>94025.84</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2045,8 +2369,23 @@
       <c r="P20">
         <v>-1.67</v>
       </c>
+      <c r="Q20">
+        <v>-0.89</v>
+      </c>
+      <c r="R20">
+        <v>17.57</v>
+      </c>
+      <c r="S20">
+        <v>3.96</v>
+      </c>
       <c r="V20" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2054,22 +2393,25 @@
       <c r="Z20">
         <v>9.033763885498047</v>
       </c>
-      <c r="AA20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300527</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>-0.79</v>
@@ -2087,7 +2429,7 @@
         <v>87302.32000000001</v>
       </c>
       <c r="J21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K21">
         <v>13</v>
@@ -2107,8 +2449,23 @@
       <c r="P21">
         <v>-0.53</v>
       </c>
+      <c r="Q21">
+        <v>-0.98</v>
+      </c>
+      <c r="R21">
+        <v>11.37</v>
+      </c>
+      <c r="S21">
+        <v>1.07</v>
+      </c>
       <c r="V21" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2116,22 +2473,25 @@
       <c r="Z21">
         <v>3.237132549285889</v>
       </c>
-      <c r="AA21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300531</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>1.27</v>
@@ -2149,7 +2509,7 @@
         <v>47184.46</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K22">
         <v>22</v>
@@ -2169,8 +2529,23 @@
       <c r="P22">
         <v>0.2</v>
       </c>
+      <c r="Q22">
+        <v>-0.92</v>
+      </c>
+      <c r="R22">
+        <v>20.9</v>
+      </c>
+      <c r="S22">
+        <v>0.92</v>
+      </c>
       <c r="V22" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>1</v>
@@ -2178,22 +2553,25 @@
       <c r="Z22">
         <v>2.435827255249023</v>
       </c>
-      <c r="AA22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300533</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0.96</v>
@@ -2211,7 +2589,7 @@
         <v>91790.84</v>
       </c>
       <c r="J23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K23">
         <v>17</v>
@@ -2231,8 +2609,23 @@
       <c r="P23">
         <v>-0.08</v>
       </c>
+      <c r="Q23">
+        <v>-4.42</v>
+      </c>
+      <c r="R23">
+        <v>38.01</v>
+      </c>
+      <c r="S23">
+        <v>-0.08</v>
+      </c>
       <c r="V23" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2240,22 +2633,25 @@
       <c r="Z23">
         <v>3.006304264068604</v>
       </c>
-      <c r="AA23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300537</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>4.52</v>
@@ -2273,7 +2669,7 @@
         <v>58066.39</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K24">
         <v>14</v>
@@ -2293,8 +2689,23 @@
       <c r="P24">
         <v>0.08</v>
       </c>
+      <c r="Q24">
+        <v>-1.17</v>
+      </c>
+      <c r="R24">
+        <v>25.89</v>
+      </c>
+      <c r="S24">
+        <v>0.78</v>
+      </c>
       <c r="V24" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2302,22 +2713,25 @@
       <c r="Z24">
         <v>2.818833112716675</v>
       </c>
-      <c r="AA24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300541</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>-1.59</v>
@@ -2335,7 +2749,7 @@
         <v>80786.41</v>
       </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -2355,8 +2769,23 @@
       <c r="P25">
         <v>-1.42</v>
       </c>
+      <c r="Q25">
+        <v>-3.36</v>
+      </c>
+      <c r="R25">
+        <v>16.68</v>
+      </c>
+      <c r="S25">
+        <v>-0.06</v>
+      </c>
       <c r="V25" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2364,22 +2793,25 @@
       <c r="Z25">
         <v>2.026227235794067</v>
       </c>
-      <c r="AA25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300548</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>1.87</v>
@@ -2397,7 +2829,7 @@
         <v>292955.78</v>
       </c>
       <c r="J26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2417,8 +2849,23 @@
       <c r="P26">
         <v>0.17</v>
       </c>
+      <c r="Q26">
+        <v>0.26</v>
+      </c>
+      <c r="R26">
+        <v>90.69</v>
+      </c>
+      <c r="S26">
+        <v>5.45</v>
+      </c>
       <c r="V26" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2426,22 +2873,25 @@
       <c r="Z26">
         <v>3.696737051010132</v>
       </c>
-      <c r="AA26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300551</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>-0.83</v>
@@ -2459,7 +2909,7 @@
         <v>49282.76</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2479,8 +2929,23 @@
       <c r="P27">
         <v>-0.62</v>
       </c>
+      <c r="Q27">
+        <v>-1.68</v>
+      </c>
+      <c r="R27">
+        <v>12</v>
+      </c>
+      <c r="S27">
+        <v>0.5</v>
+      </c>
       <c r="V27" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>1</v>
@@ -2488,22 +2953,25 @@
       <c r="Z27">
         <v>7.519129753112793</v>
       </c>
-      <c r="AA27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300581</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>10.76</v>
@@ -2521,7 +2989,7 @@
         <v>190543.08</v>
       </c>
       <c r="J28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2541,8 +3009,23 @@
       <c r="P28">
         <v>1.51</v>
       </c>
+      <c r="Q28">
+        <v>0.83</v>
+      </c>
+      <c r="R28">
+        <v>21.39</v>
+      </c>
+      <c r="S28">
+        <v>3.94</v>
+      </c>
       <c r="V28" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2550,22 +3033,25 @@
       <c r="Z28">
         <v>0.5171014070510864</v>
       </c>
-      <c r="AA28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300591</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>4.44</v>
@@ -2583,7 +3069,7 @@
         <v>146065.27</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K29">
         <v>18</v>
@@ -2603,8 +3089,23 @@
       <c r="P29">
         <v>0.42</v>
       </c>
+      <c r="Q29">
+        <v>-2.48</v>
+      </c>
+      <c r="R29">
+        <v>12.85</v>
+      </c>
+      <c r="S29">
+        <v>2.96</v>
+      </c>
       <c r="V29" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -2612,22 +3113,25 @@
       <c r="Z29">
         <v>14.05073642730713</v>
       </c>
-      <c r="AA29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300600</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>2.54</v>
@@ -2645,7 +3149,7 @@
         <v>85202.69</v>
       </c>
       <c r="J30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K30">
         <v>15</v>
@@ -2665,8 +3169,23 @@
       <c r="P30">
         <v>0.52</v>
       </c>
+      <c r="Q30">
+        <v>-4.16</v>
+      </c>
+      <c r="R30">
+        <v>16.71</v>
+      </c>
+      <c r="S30">
+        <v>0.78</v>
+      </c>
       <c r="V30" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2674,22 +3193,25 @@
       <c r="Z30">
         <v>4.453382968902588</v>
       </c>
-      <c r="AA30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300631</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>0.14</v>
@@ -2707,7 +3229,7 @@
         <v>42626.92</v>
       </c>
       <c r="J31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -2727,8 +3249,23 @@
       <c r="P31">
         <v>0.05</v>
       </c>
+      <c r="Q31">
+        <v>20.01</v>
+      </c>
+      <c r="R31">
+        <v>33.65</v>
+      </c>
+      <c r="S31">
+        <v>20.01</v>
+      </c>
       <c r="V31" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2736,22 +3273,25 @@
       <c r="Z31">
         <v>5.878267288208008</v>
       </c>
-      <c r="AA31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300644</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>20.01</v>
@@ -2769,7 +3309,7 @@
         <v>83101.39</v>
       </c>
       <c r="J32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2789,8 +3329,23 @@
       <c r="P32">
         <v>1.47</v>
       </c>
+      <c r="Q32">
+        <v>0.78</v>
+      </c>
+      <c r="R32">
+        <v>36.34</v>
+      </c>
+      <c r="S32">
+        <v>8.19</v>
+      </c>
       <c r="V32" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -2798,22 +3353,25 @@
       <c r="Z32">
         <v>12.42397022247314</v>
       </c>
-      <c r="AA32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300703</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>-1.15</v>
@@ -2831,7 +3389,7 @@
         <v>46507.58</v>
       </c>
       <c r="J33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -2851,8 +3409,23 @@
       <c r="P33">
         <v>-0.25</v>
       </c>
+      <c r="Q33">
+        <v>-1.89</v>
+      </c>
+      <c r="R33">
+        <v>26.1</v>
+      </c>
+      <c r="S33">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="V33" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2860,22 +3433,25 @@
       <c r="Z33">
         <v>4.635795116424561</v>
       </c>
-      <c r="AA33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300748</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-1.95</v>
@@ -2893,7 +3469,7 @@
         <v>176376.17</v>
       </c>
       <c r="J34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -2913,8 +3489,23 @@
       <c r="P34">
         <v>-0.4</v>
       </c>
+      <c r="Q34">
+        <v>3.97</v>
+      </c>
+      <c r="R34">
+        <v>27.66</v>
+      </c>
+      <c r="S34">
+        <v>7.58</v>
+      </c>
       <c r="V34" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2922,22 +3513,25 @@
       <c r="Z34">
         <v>2.618521690368652</v>
       </c>
-      <c r="AA34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300803</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>3.51</v>
@@ -2955,7 +3549,7 @@
         <v>479436.54</v>
       </c>
       <c r="J35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K35">
         <v>15</v>
@@ -2975,8 +3569,23 @@
       <c r="P35">
         <v>0.6899999999999999</v>
       </c>
+      <c r="Q35">
+        <v>-1.13</v>
+      </c>
+      <c r="R35">
+        <v>88.5</v>
+      </c>
+      <c r="S35">
+        <v>1.18</v>
+      </c>
       <c r="V35" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -2984,22 +3593,25 @@
       <c r="Z35">
         <v>2.537306785583496</v>
       </c>
-      <c r="AA35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300839</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>-2.13</v>
@@ -3017,7 +3629,7 @@
         <v>57486.02</v>
       </c>
       <c r="J36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3037,8 +3649,23 @@
       <c r="P36">
         <v>0.28</v>
       </c>
+      <c r="Q36">
+        <v>-2.93</v>
+      </c>
+      <c r="R36">
+        <v>14.8</v>
+      </c>
+      <c r="S36">
+        <v>0.82</v>
+      </c>
       <c r="V36" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3046,22 +3673,25 @@
       <c r="Z36">
         <v>2.887170791625977</v>
       </c>
-      <c r="AA36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>300847</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>0.36</v>
@@ -3079,7 +3709,7 @@
         <v>31320.37</v>
       </c>
       <c r="J37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K37">
         <v>9</v>
@@ -3099,8 +3729,23 @@
       <c r="P37">
         <v>-0.28</v>
       </c>
+      <c r="Q37">
+        <v>0.15</v>
+      </c>
+      <c r="R37">
+        <v>19.84</v>
+      </c>
+      <c r="S37">
+        <v>0.92</v>
+      </c>
       <c r="V37" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -3108,22 +3753,25 @@
       <c r="Z37">
         <v>2.713664293289185</v>
       </c>
-      <c r="AA37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>300872</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-2.41</v>
@@ -3141,7 +3789,7 @@
         <v>157430</v>
       </c>
       <c r="J38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K38">
         <v>24</v>
@@ -3161,8 +3809,23 @@
       <c r="P38">
         <v>-1.95</v>
       </c>
+      <c r="Q38">
+        <v>-2.11</v>
+      </c>
+      <c r="R38">
+        <v>24.86</v>
+      </c>
+      <c r="S38">
+        <v>0.85</v>
+      </c>
       <c r="V38" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3170,22 +3833,25 @@
       <c r="Z38">
         <v>6.808358192443848</v>
       </c>
-      <c r="AA38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>300897</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>1.77</v>
@@ -3203,7 +3869,7 @@
         <v>38993.18</v>
       </c>
       <c r="J39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -3223,8 +3889,23 @@
       <c r="P39">
         <v>-1.53</v>
       </c>
+      <c r="Q39">
+        <v>4.73</v>
+      </c>
+      <c r="R39">
+        <v>27.4</v>
+      </c>
+      <c r="S39">
+        <v>6.16</v>
+      </c>
       <c r="V39" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>1</v>
@@ -3232,22 +3913,25 @@
       <c r="Z39">
         <v>4.312868595123291</v>
       </c>
-      <c r="AA39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>300950</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-4.24</v>
@@ -3265,7 +3949,7 @@
         <v>125184.64</v>
       </c>
       <c r="J40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -3285,8 +3969,23 @@
       <c r="P40">
         <v>-6</v>
       </c>
+      <c r="Q40">
+        <v>-0.44</v>
+      </c>
+      <c r="R40">
+        <v>34.96</v>
+      </c>
+      <c r="S40">
+        <v>3.13</v>
+      </c>
       <c r="V40" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3294,22 +3993,25 @@
       <c r="Z40">
         <v>4.552443981170654</v>
       </c>
-      <c r="AA40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>301012</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>9.77</v>
@@ -3327,7 +4029,7 @@
         <v>140498.56</v>
       </c>
       <c r="J41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3347,8 +4049,23 @@
       <c r="P41">
         <v>-5.76</v>
       </c>
+      <c r="Q41">
+        <v>-7.76</v>
+      </c>
+      <c r="R41">
+        <v>25.02</v>
+      </c>
+      <c r="S41">
+        <v>-1.5</v>
+      </c>
       <c r="V41" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3356,22 +4073,25 @@
       <c r="Z41">
         <v>9.042605400085449</v>
       </c>
-      <c r="AA41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301120</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>-0.16</v>
@@ -3389,7 +4109,7 @@
         <v>26596.85</v>
       </c>
       <c r="J42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K42">
         <v>7</v>
@@ -3409,8 +4129,23 @@
       <c r="P42">
         <v>-0.38</v>
       </c>
+      <c r="Q42">
+        <v>-1.11</v>
+      </c>
+      <c r="R42">
+        <v>12.6</v>
+      </c>
+      <c r="S42">
+        <v>-0.16</v>
+      </c>
       <c r="V42" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3418,22 +4153,25 @@
       <c r="Z42">
         <v>2.734910726547241</v>
       </c>
-      <c r="AA42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301132</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>20.01</v>
@@ -3451,7 +4189,7 @@
         <v>78703.08</v>
       </c>
       <c r="J43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -3471,8 +4209,23 @@
       <c r="P43">
         <v>10.04</v>
       </c>
+      <c r="Q43">
+        <v>-1.65</v>
+      </c>
+      <c r="R43">
+        <v>44.41</v>
+      </c>
+      <c r="S43">
+        <v>11.36</v>
+      </c>
       <c r="V43" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>1</v>
@@ -3480,22 +4233,25 @@
       <c r="Z43">
         <v>18.76875114440918</v>
       </c>
-      <c r="AA43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301141</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>0.65</v>
@@ -3513,7 +4269,7 @@
         <v>84230.48</v>
       </c>
       <c r="J44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K44">
         <v>15</v>
@@ -3533,8 +4289,23 @@
       <c r="P44">
         <v>-0.88</v>
       </c>
+      <c r="Q44">
+        <v>1.93</v>
+      </c>
+      <c r="R44">
+        <v>77.7</v>
+      </c>
+      <c r="S44">
+        <v>9.42</v>
+      </c>
       <c r="V44" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3542,22 +4313,25 @@
       <c r="Z44">
         <v>4.515311241149902</v>
       </c>
-      <c r="AA44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>301165</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>1.38</v>
@@ -3575,7 +4349,7 @@
         <v>93762.14</v>
       </c>
       <c r="J45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -3595,8 +4369,23 @@
       <c r="P45">
         <v>0.28</v>
       </c>
+      <c r="Q45">
+        <v>-1.31</v>
+      </c>
+      <c r="R45">
+        <v>65.5</v>
+      </c>
+      <c r="S45">
+        <v>2.2</v>
+      </c>
       <c r="V45" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3604,22 +4393,25 @@
       <c r="Z45">
         <v>3.498559713363647</v>
       </c>
-      <c r="AA45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>301176</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>6.19</v>
@@ -3637,7 +4429,7 @@
         <v>72739.48</v>
       </c>
       <c r="J46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K46">
         <v>20</v>
@@ -3657,8 +4449,23 @@
       <c r="P46">
         <v>1.43</v>
       </c>
+      <c r="Q46">
+        <v>-4.75</v>
+      </c>
+      <c r="R46">
+        <v>35.8</v>
+      </c>
+      <c r="S46">
+        <v>1.82</v>
+      </c>
       <c r="V46" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3666,22 +4473,25 @@
       <c r="Z46">
         <v>2.509296894073486</v>
       </c>
-      <c r="AA46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>301183</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>2.62</v>
@@ -3699,7 +4509,7 @@
         <v>141580.07</v>
       </c>
       <c r="J47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -3719,8 +4529,23 @@
       <c r="P47">
         <v>-1.73</v>
       </c>
+      <c r="Q47">
+        <v>-2.58</v>
+      </c>
+      <c r="R47">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="S47">
+        <v>-0.03</v>
+      </c>
       <c r="V47" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>1</v>
@@ -3728,22 +4553,25 @@
       <c r="Z47">
         <v>6.332633495330811</v>
       </c>
-      <c r="AA47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301217</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>13.37</v>
@@ -3761,7 +4589,7 @@
         <v>183777.84</v>
       </c>
       <c r="J48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K48">
         <v>9</v>
@@ -3781,8 +4609,23 @@
       <c r="P48">
         <v>2.27</v>
       </c>
+      <c r="Q48">
+        <v>3.16</v>
+      </c>
+      <c r="R48">
+        <v>23.25</v>
+      </c>
+      <c r="S48">
+        <v>11.46</v>
+      </c>
       <c r="V48" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3790,22 +4633,25 @@
       <c r="Z48">
         <v>-0.2353609353303909</v>
       </c>
-      <c r="AA48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301312</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>-1.05</v>
@@ -3823,7 +4669,7 @@
         <v>40508.37</v>
       </c>
       <c r="J49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -3843,8 +4689,23 @@
       <c r="P49">
         <v>-0.55</v>
       </c>
+      <c r="Q49">
+        <v>-1.1</v>
+      </c>
+      <c r="R49">
+        <v>43.68</v>
+      </c>
+      <c r="S49">
+        <v>0.32</v>
+      </c>
       <c r="V49" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3852,22 +4713,25 @@
       <c r="Z49">
         <v>2.397137880325317</v>
       </c>
-      <c r="AA49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301345</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>-3.81</v>
@@ -3885,7 +4749,7 @@
         <v>78070.44</v>
       </c>
       <c r="J50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K50">
         <v>13</v>
@@ -3905,8 +4769,23 @@
       <c r="P50">
         <v>-2.2</v>
       </c>
+      <c r="Q50">
+        <v>-2.04</v>
+      </c>
+      <c r="R50">
+        <v>141.5</v>
+      </c>
+      <c r="S50">
+        <v>-0.13</v>
+      </c>
       <c r="V50" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3914,22 +4793,25 @@
       <c r="Z50">
         <v>0.2229194045066833</v>
       </c>
-      <c r="AA50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301357</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>5.88</v>
@@ -3947,7 +4829,7 @@
         <v>96585.60000000001</v>
       </c>
       <c r="J51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -3967,8 +4849,23 @@
       <c r="P51">
         <v>-0.78</v>
       </c>
+      <c r="Q51">
+        <v>-2.18</v>
+      </c>
+      <c r="R51">
+        <v>87.8</v>
+      </c>
+      <c r="S51">
+        <v>2.73</v>
+      </c>
       <c r="V51" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>1</v>
@@ -3976,22 +4873,25 @@
       <c r="Z51">
         <v>6.19975757598877</v>
       </c>
-      <c r="AA51" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301377</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>9.369999999999999</v>
@@ -4009,7 +4909,7 @@
         <v>66362.12</v>
       </c>
       <c r="J52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -4029,8 +4929,23 @@
       <c r="P52">
         <v>0.83</v>
       </c>
+      <c r="Q52">
+        <v>2.51</v>
+      </c>
+      <c r="R52">
+        <v>47.47</v>
+      </c>
+      <c r="S52">
+        <v>8.18</v>
+      </c>
       <c r="V52" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4038,22 +4953,25 @@
       <c r="Z52">
         <v>0.4453355967998505</v>
       </c>
-      <c r="AA52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>301388</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>0.31</v>
@@ -4071,7 +4989,7 @@
         <v>56410.12</v>
       </c>
       <c r="J53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K53">
         <v>9</v>
@@ -4091,8 +5009,23 @@
       <c r="P53">
         <v>-0.92</v>
       </c>
+      <c r="Q53">
+        <v>4.99</v>
+      </c>
+      <c r="R53">
+        <v>40.43</v>
+      </c>
+      <c r="S53">
+        <v>5.56</v>
+      </c>
       <c r="V53" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>1</v>
@@ -4100,22 +5033,25 @@
       <c r="Z53">
         <v>6.868182182312012</v>
       </c>
-      <c r="AA53" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>301389</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>2.64</v>
@@ -4133,7 +5069,7 @@
         <v>70820.86</v>
       </c>
       <c r="J54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K54">
         <v>8</v>
@@ -4153,8 +5089,23 @@
       <c r="P54">
         <v>1.19</v>
       </c>
+      <c r="Q54">
+        <v>0.27</v>
+      </c>
+      <c r="R54">
+        <v>35</v>
+      </c>
+      <c r="S54">
+        <v>5.96</v>
+      </c>
       <c r="V54" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4162,22 +5113,25 @@
       <c r="Z54">
         <v>1.684331297874451</v>
       </c>
-      <c r="AA54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>301421</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>6.13</v>
@@ -4195,7 +5149,7 @@
         <v>60287.67</v>
       </c>
       <c r="J55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K55">
         <v>19</v>
@@ -4215,8 +5169,23 @@
       <c r="P55">
         <v>1.48</v>
       </c>
+      <c r="Q55">
+        <v>3.51</v>
+      </c>
+      <c r="R55">
+        <v>76.88</v>
+      </c>
+      <c r="S55">
+        <v>4.68</v>
+      </c>
       <c r="V55" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>1</v>
@@ -4224,22 +5193,25 @@
       <c r="Z55">
         <v>1.582421541213989</v>
       </c>
-      <c r="AA55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>301511</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>7.28</v>
@@ -4257,7 +5229,7 @@
         <v>90833.87</v>
       </c>
       <c r="J56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K56">
         <v>18</v>
@@ -4277,8 +5249,23 @@
       <c r="P56">
         <v>0.9</v>
       </c>
+      <c r="Q56">
+        <v>-3.49</v>
+      </c>
+      <c r="R56">
+        <v>27.5</v>
+      </c>
+      <c r="S56">
+        <v>4.29</v>
+      </c>
       <c r="V56" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>1</v>
@@ -4286,22 +5273,25 @@
       <c r="Z56">
         <v>11.04091835021973</v>
       </c>
-      <c r="AA56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>301526</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>2.89</v>
@@ -4319,7 +5309,7 @@
         <v>91824.67</v>
       </c>
       <c r="J57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K57">
         <v>8</v>
@@ -4339,8 +5329,23 @@
       <c r="P57">
         <v>0.51</v>
       </c>
+      <c r="Q57">
+        <v>-1</v>
+      </c>
+      <c r="R57">
+        <v>5.15</v>
+      </c>
+      <c r="S57">
+        <v>3.41</v>
+      </c>
       <c r="V57" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4348,22 +5353,25 @@
       <c r="Z57">
         <v>5.13685417175293</v>
       </c>
-      <c r="AA57" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>688062</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>19.99</v>
@@ -4381,7 +5389,7 @@
         <v>126936.32</v>
       </c>
       <c r="J58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K58">
         <v>11</v>
@@ -4401,8 +5409,23 @@
       <c r="P58">
         <v>1.33</v>
       </c>
+      <c r="Q58">
+        <v>-2.76</v>
+      </c>
+      <c r="R58">
+        <v>37.5</v>
+      </c>
+      <c r="S58">
+        <v>0.46</v>
+      </c>
       <c r="V58" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>1</v>
@@ -4410,22 +5433,25 @@
       <c r="Z58">
         <v>9.967333793640137</v>
       </c>
-      <c r="AA58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>688117</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>-0.1</v>
@@ -4443,7 +5469,7 @@
         <v>46764.45</v>
       </c>
       <c r="J59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -4463,8 +5489,23 @@
       <c r="P59">
         <v>-0.58</v>
       </c>
+      <c r="Q59">
+        <v>7.76</v>
+      </c>
+      <c r="R59">
+        <v>43.19</v>
+      </c>
+      <c r="S59">
+        <v>9.59</v>
+      </c>
       <c r="V59" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4472,22 +5513,25 @@
       <c r="Z59">
         <v>1.570964455604553</v>
       </c>
-      <c r="AA59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>688176</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>7.4</v>
@@ -4505,7 +5549,7 @@
         <v>40564.66</v>
       </c>
       <c r="J60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K60">
         <v>4</v>
@@ -4525,8 +5569,23 @@
       <c r="P60">
         <v>0.75</v>
       </c>
+      <c r="Q60">
+        <v>-2.1</v>
+      </c>
+      <c r="R60">
+        <v>11.86</v>
+      </c>
+      <c r="S60">
+        <v>-0.34</v>
+      </c>
       <c r="V60" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4534,22 +5593,25 @@
       <c r="Z60">
         <v>3.039949655532837</v>
       </c>
-      <c r="AA60" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>688202</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>19</v>
@@ -4567,7 +5629,7 @@
         <v>90237.57000000001</v>
       </c>
       <c r="J61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K61">
         <v>8</v>
@@ -4587,8 +5649,23 @@
       <c r="P61">
         <v>1.49</v>
       </c>
+      <c r="Q61">
+        <v>1.8</v>
+      </c>
+      <c r="R61">
+        <v>62.79</v>
+      </c>
+      <c r="S61">
+        <v>6.89</v>
+      </c>
       <c r="V61" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
       </c>
       <c r="Y61">
         <v>1</v>
@@ -4596,22 +5673,25 @@
       <c r="Z61">
         <v>2.858625411987305</v>
       </c>
-      <c r="AA61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>688221</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>6</v>
@@ -4629,7 +5709,7 @@
         <v>67077.39999999999</v>
       </c>
       <c r="J62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K62">
         <v>9</v>
@@ -4649,8 +5729,23 @@
       <c r="P62">
         <v>-0.13</v>
       </c>
+      <c r="Q62">
+        <v>4.34</v>
+      </c>
+      <c r="R62">
+        <v>21.79</v>
+      </c>
+      <c r="S62">
+        <v>6.29</v>
+      </c>
       <c r="V62" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
       </c>
       <c r="Y62">
         <v>1</v>
@@ -4658,22 +5753,25 @@
       <c r="Z62">
         <v>7.336661338806152</v>
       </c>
-      <c r="AA62" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>688313</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>11.1</v>
@@ -4691,7 +5789,7 @@
         <v>210805.27</v>
       </c>
       <c r="J63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K63">
         <v>22</v>
@@ -4711,8 +5809,23 @@
       <c r="P63">
         <v>0.16</v>
       </c>
+      <c r="Q63">
+        <v>2.43</v>
+      </c>
+      <c r="R63">
+        <v>55.55</v>
+      </c>
+      <c r="S63">
+        <v>6.36</v>
+      </c>
       <c r="V63" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>1</v>
@@ -4720,22 +5833,25 @@
       <c r="Z63">
         <v>6.975550174713135</v>
       </c>
-      <c r="AA63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>688317</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>3.51</v>
@@ -4753,7 +5869,7 @@
         <v>41071.04</v>
       </c>
       <c r="J64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K64">
         <v>3</v>
@@ -4773,8 +5889,23 @@
       <c r="P64">
         <v>0.7</v>
       </c>
+      <c r="Q64">
+        <v>-7.07</v>
+      </c>
+      <c r="R64">
+        <v>24.35</v>
+      </c>
+      <c r="S64">
+        <v>-0.53</v>
+      </c>
       <c r="V64" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -4782,22 +5913,25 @@
       <c r="Z64">
         <v>3.161195993423462</v>
       </c>
-      <c r="AA64" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>688499</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>8.25</v>
@@ -4815,7 +5949,7 @@
         <v>76760.61</v>
       </c>
       <c r="J65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K65">
         <v>23</v>
@@ -4835,8 +5969,23 @@
       <c r="P65">
         <v>0.3</v>
       </c>
+      <c r="Q65">
+        <v>11.69</v>
+      </c>
+      <c r="R65">
+        <v>51</v>
+      </c>
+      <c r="S65">
+        <v>17.11</v>
+      </c>
       <c r="V65" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
       </c>
       <c r="Y65">
         <v>1</v>
@@ -4844,22 +5993,25 @@
       <c r="Z65">
         <v>12.65051555633545</v>
       </c>
-      <c r="AA65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>688668</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>1.88</v>
@@ -4877,7 +6029,7 @@
         <v>69799.24000000001</v>
       </c>
       <c r="J66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -4897,8 +6049,23 @@
       <c r="P66">
         <v>-0.18</v>
       </c>
+      <c r="Q66">
+        <v>-0.77</v>
+      </c>
+      <c r="R66">
+        <v>73.73</v>
+      </c>
+      <c r="S66">
+        <v>3.29</v>
+      </c>
       <c r="V66" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -4906,22 +6073,25 @@
       <c r="Z66">
         <v>5.017892360687256</v>
       </c>
-      <c r="AA66" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>688799</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67">
         <v>2.32</v>
@@ -4939,7 +6109,7 @@
         <v>50481.5</v>
       </c>
       <c r="J67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K67">
         <v>7</v>
@@ -4959,8 +6129,23 @@
       <c r="P67">
         <v>0.5</v>
       </c>
+      <c r="Q67">
+        <v>-1.53</v>
+      </c>
+      <c r="R67">
+        <v>55.68</v>
+      </c>
+      <c r="S67">
+        <v>0.31</v>
+      </c>
       <c r="V67" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
       </c>
       <c r="Y67">
         <v>1</v>
@@ -4968,8 +6153,11 @@
       <c r="Z67">
         <v>3.546564817428589</v>
       </c>
-      <c r="AA67" t="s">
-        <v>138</v>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
